--- a/medicine/Psychotrope/Looksor/Looksor.xlsx
+++ b/medicine/Psychotrope/Looksor/Looksor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Looksor était une discothèque située à Clisson (Loire-Atlantique, France). Ouverte en 1985, célébrée en 2005 par le titre Louxor, j'adore de Philippe Katerine, elle est fermée en 2018. Propriété du Hellfest depuis 2015 et situé sur le site du festival, le bâtiment est en cours de réhabilitation pour devenir un bar-brasserie sous l'enseigne Mélusine en 2024.
 </t>
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ouverte en 1985, cette boîte de nuit est créée à l'initiative de Pierre Jolly (1935-2018), propriétaire de parquets (salle de bal itinérante sous chapiteau)[1] depuis le début des années 1960, désireux de se fixer[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouverte en 1985, cette boîte de nuit est créée à l'initiative de Pierre Jolly (1935-2018), propriétaire de parquets (salle de bal itinérante sous chapiteau) depuis le début des années 1960, désireux de se fixer.
 Son architecture pyramidale évoque la ville homophone de Louksor.
-L'établissement ferme en juillet 2018[3],[4].
-Le fonds est racheté en 2015[5] par Hellfest productions, puis le bâtiment en 2019.
-Actuellement le site est en cours de rénovation et d'agrandissement afin de devenir un bar-brasserie sous l'enseigne Mélusine[6],[7] dont l'ouverture est prévue pour 2024.
+L'établissement ferme en juillet 2018,.
+Le fonds est racheté en 2015 par Hellfest productions, puis le bâtiment en 2019.
+Actuellement le site est en cours de rénovation et d'agrandissement afin de devenir un bar-brasserie sous l'enseigne Mélusine, dont l'ouverture est prévue pour 2024.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Looksor est la discothèque dans laquelle Philippe Katerine « coupe le son » dans son titre Louxor, j'adore sur l'album Robots après tout sorti en 2005[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Looksor est la discothèque dans laquelle Philippe Katerine « coupe le son » dans son titre Louxor, j'adore sur l'album Robots après tout sorti en 2005.
 </t>
         </is>
       </c>
